--- a/Bitcoin Lightning Bank Case Study - Yield Estimate Calculator V2.xlsx
+++ b/Bitcoin Lightning Bank Case Study - Yield Estimate Calculator V2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20eb409204932c1c/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2664" documentId="13_ncr:1_{AE93A452-22DF-478B-8AAE-1A3A6016AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2EA8E88-69E7-47D0-BD84-58FA3D224D38}"/>
+  <xr:revisionPtr revIDLastSave="2761" documentId="13_ncr:1_{AE93A452-22DF-478B-8AAE-1A3A6016AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EE047EE-9208-46BC-BF94-17C380CEB054}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{10396A79-A4B2-467C-A467-ECE59C587EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Yield Estimate Calculator" sheetId="12" r:id="rId1"/>
+    <sheet name="10 Year Burndown" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
   <si>
     <t>Bitcoin Compound Annual Growth Rate</t>
   </si>
@@ -193,6 +194,15 @@
   <si>
     <t>Bitcoin Lightning Bank - The Decentralized Strategy
 Pairing Bitcoin Investors with Fiat Investors for Yield Extraction</t>
+  </si>
+  <si>
+    <t>Threshold where the majority of Bitcoin Yield has been extracted and it may be ideal to sell principal BTC to repay debt obligation</t>
+  </si>
+  <si>
+    <t>Significant data points</t>
+  </si>
+  <si>
+    <t>Yield Estimate 10 Year Burndown</t>
   </si>
 </sst>
 </file>
@@ -206,7 +216,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;###0.00,,,,&quot; T&quot;"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +273,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +327,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,15 +444,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -469,11 +483,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -499,52 +526,49 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -559,22 +583,22 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,7 +634,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -625,7 +649,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -643,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -655,7 +679,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -694,11 +718,41 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,7 +1131,7 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1107,13 +1161,13 @@
       <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="21"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="73" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="74"/>
@@ -1123,17 +1177,17 @@
       <c r="J2" s="74"/>
       <c r="K2" s="74"/>
       <c r="L2" s="74"/>
-      <c r="M2" s="22"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="22"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>100000</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
       <c r="G3" s="74"/>
@@ -1142,17 +1196,17 @@
       <c r="J3" s="74"/>
       <c r="K3" s="74"/>
       <c r="L3" s="74"/>
-      <c r="M3" s="22"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="22"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="45"/>
+      <c r="C4" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="44"/>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
       <c r="G4" s="74"/>
@@ -1161,17 +1215,17 @@
       <c r="J4" s="74"/>
       <c r="K4" s="74"/>
       <c r="L4" s="74"/>
-      <c r="M4" s="22"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="22"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="46"/>
+      <c r="C5" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="45"/>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
       <c r="G5" s="74"/>
@@ -1180,85 +1234,94 @@
       <c r="J5" s="74"/>
       <c r="K5" s="74"/>
       <c r="L5" s="74"/>
-      <c r="M5" s="22"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="22"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="M6" s="22"/>
+      <c r="C6" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="22"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="39">
         <v>0.2</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="66" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="70" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="71">
+      <c r="L7" s="70">
         <f>(J8/F8)^(1/DATEDIF(H8,L8,"Y"))-1</f>
         <v>0.76925197017405411</v>
       </c>
-      <c r="M7" s="22"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="22"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <f>SUM(C5:C7)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="70" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="71">
         <v>314.25</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="72">
         <v>42005</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="71">
         <v>94443.520000000004</v>
       </c>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="73">
+      <c r="L8" s="72">
         <v>45658</v>
       </c>
-      <c r="M8" s="22"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="22"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="19"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1266,11 +1329,11 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="22"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
@@ -1304,11 +1367,11 @@
       <c r="L10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="22"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="22"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1323,12 +1386,12 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="56"/>
+      <c r="M11" s="55"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="22"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="52" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -1343,1352 +1406,1352 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="56"/>
+      <c r="M12" s="55"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="22"/>
-      <c r="B13" s="53" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="12">
         <f>($C$3 * $C$4) + $C$3</f>
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="D13" s="2">
         <f>(C13 * $C$4) + C13</f>
-        <v>144000</v>
+        <v>169000</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ref="E13:L13" si="0">(D13 * $C$4) + D13</f>
-        <v>172800</v>
+        <v>219700</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>207360</v>
+        <v>285610</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>248832</v>
+        <v>371293</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>298598.40000000002</v>
+        <v>482680.9</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>358318.08000000002</v>
+        <v>627485.17000000004</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>429981.696</v>
+        <v>815730.72100000002</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>515978.03519999998</v>
+        <v>1060449.9373000001</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="0"/>
-        <v>619173.64223999996</v>
-      </c>
-      <c r="M13" s="56"/>
+        <v>1378584.9184900001</v>
+      </c>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="22"/>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <f>C13*21000000</f>
-        <v>2520000000000</v>
-      </c>
-      <c r="D14" s="35">
+        <v>2730000000000</v>
+      </c>
+      <c r="D14" s="34">
         <f t="shared" ref="D14:L14" si="1">D13*21000000</f>
-        <v>3024000000000</v>
-      </c>
-      <c r="E14" s="35">
+        <v>3549000000000</v>
+      </c>
+      <c r="E14" s="34">
         <f t="shared" si="1"/>
-        <v>3628800000000</v>
-      </c>
-      <c r="F14" s="35">
+        <v>4613700000000</v>
+      </c>
+      <c r="F14" s="34">
         <f t="shared" si="1"/>
-        <v>4354560000000</v>
-      </c>
-      <c r="G14" s="35">
+        <v>5997810000000</v>
+      </c>
+      <c r="G14" s="34">
         <f t="shared" si="1"/>
-        <v>5225472000000</v>
-      </c>
-      <c r="H14" s="35">
+        <v>7797153000000</v>
+      </c>
+      <c r="H14" s="34">
         <f t="shared" si="1"/>
-        <v>6270566400000.001</v>
-      </c>
-      <c r="I14" s="35">
+        <v>10136298900000</v>
+      </c>
+      <c r="I14" s="34">
         <f t="shared" si="1"/>
-        <v>7524679680000</v>
-      </c>
-      <c r="J14" s="35">
+        <v>13177188570000</v>
+      </c>
+      <c r="J14" s="34">
         <f t="shared" si="1"/>
-        <v>9029615616000</v>
-      </c>
-      <c r="K14" s="35">
+        <v>17130345141000</v>
+      </c>
+      <c r="K14" s="34">
         <f t="shared" si="1"/>
-        <v>10835538739200</v>
-      </c>
-      <c r="L14" s="35">
+        <v>22269448683300.004</v>
+      </c>
+      <c r="L14" s="34">
         <f t="shared" si="1"/>
-        <v>13002646487040</v>
-      </c>
-      <c r="M14" s="56"/>
+        <v>28950283288290</v>
+      </c>
+      <c r="M14" s="55"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="22"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="66">
         <f>( ( C13 - $C$3 ) ) / C13</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D15" s="67">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D15" s="66">
         <f>( ( D13 - $C$3 ) ) / D13</f>
-        <v>0.30555555555555558</v>
-      </c>
-      <c r="E15" s="67">
+        <v>0.40828402366863903</v>
+      </c>
+      <c r="E15" s="66">
         <f t="shared" ref="E15:L15" si="2">( ( E13 - $C$3 ) ) / E13</f>
-        <v>0.42129629629629628</v>
-      </c>
-      <c r="F15" s="67">
+        <v>0.54483386436049153</v>
+      </c>
+      <c r="F15" s="66">
         <f t="shared" si="2"/>
-        <v>0.51774691358024694</v>
-      </c>
-      <c r="G15" s="67">
+        <v>0.64987220335422424</v>
+      </c>
+      <c r="G15" s="66">
         <f t="shared" si="2"/>
-        <v>0.5981224279835391</v>
-      </c>
-      <c r="H15" s="67">
+        <v>0.73067092565709557</v>
+      </c>
+      <c r="H15" s="66">
         <f t="shared" si="2"/>
-        <v>0.66510202331961599</v>
-      </c>
-      <c r="I15" s="67">
+        <v>0.79282378896699668</v>
+      </c>
+      <c r="I15" s="66">
         <f t="shared" si="2"/>
-        <v>0.72091835276634664</v>
-      </c>
-      <c r="J15" s="67">
+        <v>0.84063368382076664</v>
+      </c>
+      <c r="J15" s="66">
         <f t="shared" si="2"/>
-        <v>0.76743196063862218</v>
-      </c>
-      <c r="K15" s="67">
+        <v>0.87741052601597436</v>
+      </c>
+      <c r="K15" s="66">
         <f t="shared" si="2"/>
-        <v>0.80619330053218508</v>
-      </c>
-      <c r="L15" s="67">
+        <v>0.90570040462767254</v>
+      </c>
+      <c r="L15" s="66">
         <f t="shared" si="2"/>
-        <v>0.83849441711015427</v>
-      </c>
-      <c r="M15" s="62"/>
+        <v>0.92746184971359424</v>
+      </c>
+      <c r="M15" s="61"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="22"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="66">
         <f>1-C15</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D16" s="67">
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="D16" s="66">
         <f t="shared" ref="D16:L16" si="3">1-D15</f>
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="E16" s="67">
+        <v>0.59171597633136097</v>
+      </c>
+      <c r="E16" s="66">
         <f t="shared" si="3"/>
-        <v>0.57870370370370372</v>
-      </c>
-      <c r="F16" s="67">
+        <v>0.45516613563950847</v>
+      </c>
+      <c r="F16" s="66">
         <f t="shared" si="3"/>
-        <v>0.48225308641975306</v>
-      </c>
-      <c r="G16" s="67">
+        <v>0.35012779664577576</v>
+      </c>
+      <c r="G16" s="66">
         <f t="shared" si="3"/>
-        <v>0.4018775720164609</v>
-      </c>
-      <c r="H16" s="67">
+        <v>0.26932907434290443</v>
+      </c>
+      <c r="H16" s="66">
         <f t="shared" si="3"/>
-        <v>0.33489797668038401</v>
-      </c>
-      <c r="I16" s="67">
+        <v>0.20717621103300332</v>
+      </c>
+      <c r="I16" s="66">
         <f t="shared" si="3"/>
-        <v>0.27908164723365336</v>
-      </c>
-      <c r="J16" s="67">
+        <v>0.15936631617923336</v>
+      </c>
+      <c r="J16" s="66">
         <f t="shared" si="3"/>
-        <v>0.23256803936137782</v>
-      </c>
-      <c r="K16" s="67">
+        <v>0.12258947398402564</v>
+      </c>
+      <c r="K16" s="66">
         <f t="shared" si="3"/>
-        <v>0.19380669946781492</v>
-      </c>
-      <c r="L16" s="67">
+        <v>9.429959537232746E-2</v>
+      </c>
+      <c r="L16" s="66">
         <f t="shared" si="3"/>
-        <v>0.16150558288984573</v>
-      </c>
-      <c r="M16" s="62"/>
+        <v>7.2538150286405756E-2</v>
+      </c>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="22"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="60">
         <f>C15</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D17" s="64">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D17" s="63">
         <f>D15-C15</f>
-        <v>0.13888888888888892</v>
-      </c>
-      <c r="E17" s="64">
+        <v>0.17751479289940825</v>
+      </c>
+      <c r="E17" s="63">
         <f>E15-D15</f>
-        <v>0.1157407407407407</v>
-      </c>
-      <c r="F17" s="64">
+        <v>0.1365498406918525</v>
+      </c>
+      <c r="F17" s="63">
         <f t="shared" ref="F17:L17" si="4">F15-E15</f>
-        <v>9.6450617283950657E-2</v>
-      </c>
-      <c r="G17" s="64">
+        <v>0.10503833899373272</v>
+      </c>
+      <c r="G17" s="63">
         <f t="shared" si="4"/>
-        <v>8.0375514403292159E-2</v>
-      </c>
-      <c r="H17" s="64">
+        <v>8.0798722302871329E-2</v>
+      </c>
+      <c r="H17" s="63">
         <f t="shared" si="4"/>
-        <v>6.6979595336076891E-2</v>
-      </c>
-      <c r="I17" s="64">
+        <v>6.2152863309901107E-2</v>
+      </c>
+      <c r="I17" s="63">
         <f t="shared" si="4"/>
-        <v>5.581632944673065E-2</v>
-      </c>
-      <c r="J17" s="64">
+        <v>4.7809894853769963E-2</v>
+      </c>
+      <c r="J17" s="63">
         <f t="shared" si="4"/>
-        <v>4.6513607872275542E-2</v>
-      </c>
-      <c r="K17" s="64">
+        <v>3.6776842195207715E-2</v>
+      </c>
+      <c r="K17" s="63">
         <f t="shared" si="4"/>
-        <v>3.8761339893562896E-2</v>
-      </c>
-      <c r="L17" s="64">
+        <v>2.8289878611698183E-2</v>
+      </c>
+      <c r="L17" s="63">
         <f t="shared" si="4"/>
-        <v>3.2301116577969191E-2</v>
-      </c>
-      <c r="M17" s="56"/>
+        <v>2.1761445085921705E-2</v>
+      </c>
+      <c r="M17" s="55"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57">
         <f>SUM(C17:G17)/5</f>
-        <v>0.11962448559670782</v>
-      </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="58">
+        <v>0.14613418513141913</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="57">
         <f>SUM(C17:L17)/10</f>
-        <v>8.3849441711015424E-2</v>
-      </c>
-      <c r="M18" s="56"/>
+        <v>9.2746184971359419E-2</v>
+      </c>
+      <c r="M18" s="55"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="22"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="22"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="50">
         <f>C17 * $C$5</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D20" s="48">
+        <v>9.2307692307692313E-2</v>
+      </c>
+      <c r="D20" s="47">
         <f>D17 * $C$5</f>
-        <v>6.9444444444444461E-2</v>
-      </c>
-      <c r="E20" s="48">
+        <v>7.1005917159763302E-2</v>
+      </c>
+      <c r="E20" s="47">
         <f t="shared" ref="E20:L20" si="5">E17 * $C$5</f>
-        <v>5.787037037037035E-2</v>
-      </c>
-      <c r="F20" s="48">
+        <v>5.4619936276740999E-2</v>
+      </c>
+      <c r="F20" s="47">
         <f t="shared" si="5"/>
-        <v>4.8225308641975329E-2</v>
-      </c>
-      <c r="G20" s="48">
+        <v>4.2015335597493091E-2</v>
+      </c>
+      <c r="G20" s="47">
         <f t="shared" si="5"/>
-        <v>4.0187757201646079E-2</v>
-      </c>
-      <c r="H20" s="48">
+        <v>3.2319488921148533E-2</v>
+      </c>
+      <c r="H20" s="47">
         <f t="shared" si="5"/>
-        <v>3.3489797668038446E-2</v>
-      </c>
-      <c r="I20" s="48">
+        <v>2.4861145323960443E-2</v>
+      </c>
+      <c r="I20" s="47">
         <f t="shared" si="5"/>
-        <v>2.7908164723365325E-2</v>
-      </c>
-      <c r="J20" s="48">
+        <v>1.9123957941507987E-2</v>
+      </c>
+      <c r="J20" s="47">
         <f t="shared" si="5"/>
-        <v>2.3256803936137771E-2</v>
-      </c>
-      <c r="K20" s="48">
+        <v>1.4710736878083087E-2</v>
+      </c>
+      <c r="K20" s="47">
         <f t="shared" si="5"/>
-        <v>1.9380669946781448E-2</v>
-      </c>
-      <c r="L20" s="48">
+        <v>1.1315951444679274E-2</v>
+      </c>
+      <c r="L20" s="47">
         <f t="shared" si="5"/>
-        <v>1.6150558288984596E-2</v>
-      </c>
-      <c r="M20" s="56"/>
+        <v>8.7045780343686825E-3</v>
+      </c>
+      <c r="M20" s="55"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="22"/>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50">
+      <c r="C21" s="51"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49">
         <f>SUM(C20:G20)/5</f>
-        <v>5.9812242798353912E-2</v>
-      </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="50">
+        <v>5.8453674052567649E-2</v>
+      </c>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="49">
         <f>SUM(C20:L20)/10</f>
-        <v>4.1924720855507712E-2</v>
-      </c>
-      <c r="M21" s="56"/>
+        <v>3.7098473988543781E-2</v>
+      </c>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="22"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="17">
         <f>10*C20</f>
-        <v>0.83333333333333326</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ref="D22:L22" si="6">10*D20</f>
-        <v>0.69444444444444464</v>
+        <v>0.71005917159763299</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="6"/>
-        <v>0.5787037037037035</v>
+        <v>0.54619936276740999</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="6"/>
-        <v>0.48225308641975329</v>
+        <v>0.42015335597493092</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="6"/>
-        <v>0.40187757201646079</v>
+        <v>0.32319488921148531</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="6"/>
-        <v>0.33489797668038446</v>
+        <v>0.24861145323960443</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="6"/>
-        <v>0.27908164723365325</v>
+        <v>0.19123957941507985</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="6"/>
-        <v>0.23256803936137771</v>
+        <v>0.14710736878083086</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="6"/>
-        <v>0.19380669946781448</v>
+        <v>0.11315951444679273</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="6"/>
-        <v>0.16150558288984596</v>
-      </c>
-      <c r="M22" s="56"/>
+        <v>8.7045780343686818E-2</v>
+      </c>
+      <c r="M22" s="55"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="22"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="15">
         <f>C22</f>
-        <v>0.83333333333333326</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="D23" s="16">
         <f>D22+C23</f>
-        <v>1.5277777777777779</v>
+        <v>1.6331360946745561</v>
       </c>
       <c r="E23" s="16">
         <f t="shared" ref="E23" si="7">E22+D23</f>
-        <v>2.1064814814814814</v>
+        <v>2.1793354574419661</v>
       </c>
       <c r="F23" s="16">
         <f t="shared" ref="F23" si="8">F22+E23</f>
-        <v>2.5887345679012346</v>
+        <v>2.599488813416897</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" ref="G23" si="9">G22+F23</f>
-        <v>2.9906121399176953</v>
+        <v>2.9226837026283823</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" ref="H23" si="10">H22+G23</f>
-        <v>3.3255101165980796</v>
+        <v>3.1712951558679867</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" ref="I23" si="11">I22+H23</f>
-        <v>3.6045917638317331</v>
+        <v>3.3625347352830666</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" ref="J23" si="12">J22+I23</f>
-        <v>3.8371598031931109</v>
+        <v>3.5096421040638974</v>
       </c>
       <c r="K23" s="16">
         <f t="shared" ref="K23" si="13">K22+J23</f>
-        <v>4.0309665026609256</v>
+        <v>3.6228016185106902</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" ref="L23" si="14">L22+K23</f>
-        <v>4.1924720855507713</v>
-      </c>
-      <c r="M23" s="56"/>
+        <v>3.709847398854377</v>
+      </c>
+      <c r="M23" s="55"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="22"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="66">
         <f>C20*C13/$C$3</f>
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="67">
+        <v>0.12</v>
+      </c>
+      <c r="D24" s="66">
         <f t="shared" ref="D24:L24" si="15">D20*D13/$C$3</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="E24" s="67">
+        <v>0.11999999999999998</v>
+      </c>
+      <c r="E24" s="66">
         <f t="shared" si="15"/>
-        <v>9.9999999999999964E-2</v>
-      </c>
-      <c r="F24" s="67">
+        <v>0.11999999999999998</v>
+      </c>
+      <c r="F24" s="66">
         <f t="shared" si="15"/>
-        <v>0.10000000000000003</v>
-      </c>
-      <c r="G24" s="67">
+        <v>0.12000000000000002</v>
+      </c>
+      <c r="G24" s="66">
         <f t="shared" si="15"/>
-        <v>9.9999999999999964E-2</v>
-      </c>
-      <c r="H24" s="67">
+        <v>0.12000000000000002</v>
+      </c>
+      <c r="H24" s="66">
         <f t="shared" si="15"/>
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="I24" s="67">
+        <v>0.12000000000000018</v>
+      </c>
+      <c r="I24" s="66">
         <f t="shared" si="15"/>
-        <v>9.999999999999995E-2</v>
-      </c>
-      <c r="J24" s="67">
+        <v>0.11999999999999988</v>
+      </c>
+      <c r="J24" s="66">
         <f t="shared" si="15"/>
-        <v>9.999999999999995E-2</v>
-      </c>
-      <c r="K24" s="67">
+        <v>0.12000000000000005</v>
+      </c>
+      <c r="K24" s="66">
         <f t="shared" si="15"/>
-        <v>9.9999999999999797E-2</v>
-      </c>
-      <c r="L24" s="67">
+        <v>0.11999999999999982</v>
+      </c>
+      <c r="L24" s="66">
         <f t="shared" si="15"/>
-        <v>0.10000000000000014</v>
-      </c>
-      <c r="M24" s="62"/>
+        <v>0.11999999999999994</v>
+      </c>
+      <c r="M24" s="61"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="22"/>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="30">
         <f t="shared" ref="C25:L25" si="16">1000000*C24</f>
-        <v>100000</v>
-      </c>
-      <c r="D25" s="31">
+        <v>120000</v>
+      </c>
+      <c r="D25" s="30">
         <f t="shared" si="16"/>
-        <v>100000.00000000001</v>
-      </c>
-      <c r="E25" s="63">
+        <v>119999.99999999999</v>
+      </c>
+      <c r="E25" s="62">
         <f t="shared" si="16"/>
-        <v>99999.999999999971</v>
-      </c>
-      <c r="F25" s="63">
+        <v>119999.99999999999</v>
+      </c>
+      <c r="F25" s="62">
         <f t="shared" si="16"/>
-        <v>100000.00000000003</v>
-      </c>
-      <c r="G25" s="63">
+        <v>120000.00000000003</v>
+      </c>
+      <c r="G25" s="62">
         <f t="shared" si="16"/>
-        <v>99999.999999999971</v>
-      </c>
-      <c r="H25" s="63">
+        <v>120000.00000000003</v>
+      </c>
+      <c r="H25" s="62">
         <f t="shared" si="16"/>
-        <v>100000.0000000001</v>
-      </c>
-      <c r="I25" s="63">
+        <v>120000.00000000017</v>
+      </c>
+      <c r="I25" s="62">
         <f t="shared" si="16"/>
-        <v>99999.999999999956</v>
-      </c>
-      <c r="J25" s="63">
+        <v>119999.99999999988</v>
+      </c>
+      <c r="J25" s="62">
         <f t="shared" si="16"/>
-        <v>99999.999999999956</v>
-      </c>
-      <c r="K25" s="63">
+        <v>120000.00000000006</v>
+      </c>
+      <c r="K25" s="62">
         <f t="shared" si="16"/>
-        <v>99999.999999999796</v>
-      </c>
-      <c r="L25" s="63">
+        <v>119999.99999999981</v>
+      </c>
+      <c r="L25" s="62">
         <f t="shared" si="16"/>
-        <v>100000.00000000015</v>
-      </c>
-      <c r="M25" s="56"/>
+        <v>119999.99999999994</v>
+      </c>
+      <c r="M25" s="55"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="22"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="31">
         <f>C25</f>
-        <v>100000</v>
-      </c>
-      <c r="D26" s="32">
+        <v>120000</v>
+      </c>
+      <c r="D26" s="31">
         <f>D25+C26</f>
-        <v>200000</v>
-      </c>
-      <c r="E26" s="33">
+        <v>240000</v>
+      </c>
+      <c r="E26" s="32">
         <f t="shared" ref="E26:L26" si="17">E25+D26</f>
-        <v>300000</v>
-      </c>
-      <c r="F26" s="33">
+        <v>360000</v>
+      </c>
+      <c r="F26" s="32">
         <f t="shared" si="17"/>
-        <v>400000</v>
-      </c>
-      <c r="G26" s="33">
+        <v>480000</v>
+      </c>
+      <c r="G26" s="32">
         <f t="shared" si="17"/>
-        <v>500000</v>
-      </c>
-      <c r="H26" s="33">
+        <v>600000</v>
+      </c>
+      <c r="H26" s="32">
         <f t="shared" si="17"/>
-        <v>600000.00000000012</v>
-      </c>
-      <c r="I26" s="33">
+        <v>720000.00000000023</v>
+      </c>
+      <c r="I26" s="32">
         <f t="shared" si="17"/>
-        <v>700000.00000000012</v>
-      </c>
-      <c r="J26" s="33">
+        <v>840000.00000000012</v>
+      </c>
+      <c r="J26" s="32">
         <f t="shared" si="17"/>
-        <v>800000.00000000012</v>
-      </c>
-      <c r="K26" s="33">
+        <v>960000.00000000023</v>
+      </c>
+      <c r="K26" s="32">
         <f t="shared" si="17"/>
-        <v>899999.99999999988</v>
-      </c>
-      <c r="L26" s="33">
+        <v>1080000</v>
+      </c>
+      <c r="L26" s="32">
         <f t="shared" si="17"/>
-        <v>1000000</v>
-      </c>
-      <c r="M26" s="56"/>
+        <v>1200000</v>
+      </c>
+      <c r="M26" s="55"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="22"/>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="54">
         <f>(C13-$C$3)*$C$5/$C$3</f>
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="55">
+        <v>0.12</v>
+      </c>
+      <c r="D27" s="54">
         <f>(D13-$C$3)*$C$5/$C$3-C27</f>
-        <v>0.12</v>
-      </c>
-      <c r="E27" s="55">
+        <v>0.15600000000000003</v>
+      </c>
+      <c r="E27" s="54">
         <f t="shared" ref="E27:L27" si="18">(E13-$C$3)*$C$5/$C$3-D27</f>
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="F27" s="55">
+        <v>0.32279999999999998</v>
+      </c>
+      <c r="F27" s="54">
         <f t="shared" si="18"/>
-        <v>0.29280000000000006</v>
-      </c>
-      <c r="G27" s="55">
+        <v>0.41964000000000001</v>
+      </c>
+      <c r="G27" s="54">
         <f t="shared" si="18"/>
-        <v>0.45135999999999998</v>
-      </c>
-      <c r="H27" s="55">
+        <v>0.66553200000000001</v>
+      </c>
+      <c r="H27" s="54">
         <f t="shared" si="18"/>
-        <v>0.54163200000000011</v>
-      </c>
-      <c r="I27" s="55">
+        <v>0.86519160000000017</v>
+      </c>
+      <c r="I27" s="54">
         <f t="shared" si="18"/>
-        <v>0.74995839999999991</v>
-      </c>
-      <c r="J27" s="55">
+        <v>1.2447490800000001</v>
+      </c>
+      <c r="J27" s="54">
         <f t="shared" si="18"/>
-        <v>0.89995007999999999</v>
-      </c>
-      <c r="K27" s="55">
+        <v>1.618173804</v>
+      </c>
+      <c r="K27" s="54">
         <f t="shared" si="18"/>
-        <v>1.1799400959999997</v>
-      </c>
-      <c r="L27" s="55">
+        <v>2.2236259452000007</v>
+      </c>
+      <c r="L27" s="54">
         <f t="shared" si="18"/>
-        <v>1.4159281152000003</v>
-      </c>
-      <c r="M27" s="22"/>
+        <v>2.8907137287600002</v>
+      </c>
+      <c r="M27" s="21"/>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="22"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54">
         <f>SUM(C27:G27)/5</f>
-        <v>0.24163199999999999</v>
-      </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55">
+        <v>0.33679439999999999</v>
+      </c>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54">
         <f>SUM(C27:L27)/10</f>
-        <v>0.59955686911999995</v>
-      </c>
-      <c r="M28" s="22"/>
+        <v>1.052642615796</v>
+      </c>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="22"/>
-      <c r="B29" s="53" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="67">
         <f>C23*C13</f>
-        <v>99999.999999999985</v>
-      </c>
-      <c r="D29" s="68">
+        <v>120000</v>
+      </c>
+      <c r="D29" s="67">
         <f t="shared" ref="D29:L29" si="19">D23*D13</f>
-        <v>220000.00000000003</v>
-      </c>
-      <c r="E29" s="68">
+        <v>276000</v>
+      </c>
+      <c r="E29" s="67">
         <f t="shared" si="19"/>
-        <v>364000</v>
-      </c>
-      <c r="F29" s="68">
+        <v>478799.99999999994</v>
+      </c>
+      <c r="F29" s="67">
         <f t="shared" si="19"/>
-        <v>536800</v>
-      </c>
-      <c r="G29" s="68">
+        <v>742440</v>
+      </c>
+      <c r="G29" s="67">
         <f>G23*G13</f>
-        <v>744160</v>
-      </c>
-      <c r="H29" s="68">
+        <v>1085172</v>
+      </c>
+      <c r="H29" s="67">
         <f t="shared" si="19"/>
-        <v>992992.00000000012</v>
-      </c>
-      <c r="I29" s="68">
+        <v>1530723.6</v>
+      </c>
+      <c r="I29" s="67">
         <f t="shared" si="19"/>
-        <v>1291590.4000000001</v>
-      </c>
-      <c r="J29" s="68">
+        <v>2109940.6800000002</v>
+      </c>
+      <c r="J29" s="67">
         <f t="shared" si="19"/>
-        <v>1649908.48</v>
-      </c>
-      <c r="K29" s="68">
+        <v>2862922.8840000001</v>
+      </c>
+      <c r="K29" s="67">
         <f t="shared" si="19"/>
-        <v>2079890.176</v>
-      </c>
-      <c r="L29" s="68">
+        <v>3841799.7492000004</v>
+      </c>
+      <c r="L29" s="67">
         <f t="shared" si="19"/>
-        <v>2595868.2111999998</v>
-      </c>
-      <c r="M29" s="22"/>
+        <v>5114339.6739600003</v>
+      </c>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="22"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="22"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="22"/>
-      <c r="B31" s="53" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="66">
         <f t="shared" ref="C31:L31" si="20">C17 * $C$6</f>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="D31" s="67">
+        <v>9.2307692307692313E-2</v>
+      </c>
+      <c r="D31" s="66">
         <f t="shared" si="20"/>
-        <v>4.1666666666666678E-2</v>
-      </c>
-      <c r="E31" s="67">
+        <v>7.1005917159763302E-2</v>
+      </c>
+      <c r="E31" s="66">
         <f t="shared" si="20"/>
-        <v>3.472222222222221E-2</v>
-      </c>
-      <c r="F31" s="67">
+        <v>5.4619936276740999E-2</v>
+      </c>
+      <c r="F31" s="66">
         <f t="shared" si="20"/>
-        <v>2.8935185185185196E-2</v>
-      </c>
-      <c r="G31" s="67">
+        <v>4.2015335597493091E-2</v>
+      </c>
+      <c r="G31" s="66">
         <f t="shared" si="20"/>
-        <v>2.4112654320987647E-2</v>
-      </c>
-      <c r="H31" s="67">
+        <v>3.2319488921148533E-2</v>
+      </c>
+      <c r="H31" s="66">
         <f t="shared" si="20"/>
-        <v>2.0093878600823067E-2</v>
-      </c>
-      <c r="I31" s="67">
+        <v>2.4861145323960443E-2</v>
+      </c>
+      <c r="I31" s="66">
         <f t="shared" si="20"/>
-        <v>1.6744898834019195E-2</v>
-      </c>
-      <c r="J31" s="67">
+        <v>1.9123957941507987E-2</v>
+      </c>
+      <c r="J31" s="66">
         <f t="shared" si="20"/>
-        <v>1.3954082361682663E-2</v>
-      </c>
-      <c r="K31" s="67">
+        <v>1.4710736878083087E-2</v>
+      </c>
+      <c r="K31" s="66">
         <f t="shared" si="20"/>
-        <v>1.1628401968068868E-2</v>
-      </c>
-      <c r="L31" s="67">
+        <v>1.1315951444679274E-2</v>
+      </c>
+      <c r="L31" s="66">
         <f t="shared" si="20"/>
-        <v>9.690334973390757E-3</v>
-      </c>
-      <c r="M31" s="22"/>
+        <v>8.7045780343686825E-3</v>
+      </c>
+      <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="22"/>
-      <c r="B32" s="53" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="55">
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="54">
         <f>SUM(C31:G31)/5</f>
-        <v>3.5887345679012347E-2</v>
-      </c>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="55">
+        <v>5.8453674052567649E-2</v>
+      </c>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="54">
         <f>SUM(C31:L31)/10</f>
-        <v>2.5154832513304626E-2</v>
-      </c>
-      <c r="M32" s="22"/>
+        <v>3.7098473988543781E-2</v>
+      </c>
+      <c r="M32" s="21"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="22"/>
-      <c r="B33" s="53" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="13">
         <f>10*C31</f>
-        <v>0.49999999999999994</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="D33" s="14">
         <f t="shared" ref="D33:L33" si="21">10*D31</f>
-        <v>0.4166666666666668</v>
+        <v>0.71005917159763299</v>
       </c>
       <c r="E33" s="14">
         <f t="shared" si="21"/>
-        <v>0.3472222222222221</v>
+        <v>0.54619936276740999</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" si="21"/>
-        <v>0.28935185185185197</v>
+        <v>0.42015335597493092</v>
       </c>
       <c r="G33" s="14">
         <f t="shared" si="21"/>
-        <v>0.24112654320987648</v>
+        <v>0.32319488921148531</v>
       </c>
       <c r="H33" s="14">
         <f t="shared" si="21"/>
-        <v>0.20093878600823067</v>
+        <v>0.24861145323960443</v>
       </c>
       <c r="I33" s="14">
         <f t="shared" si="21"/>
-        <v>0.16744898834019195</v>
+        <v>0.19123957941507985</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="21"/>
-        <v>0.13954082361682663</v>
+        <v>0.14710736878083086</v>
       </c>
       <c r="K33" s="14">
         <f t="shared" si="21"/>
-        <v>0.11628401968068869</v>
+        <v>0.11315951444679273</v>
       </c>
       <c r="L33" s="14">
         <f t="shared" si="21"/>
-        <v>9.6903349733907573E-2</v>
-      </c>
-      <c r="M33" s="56"/>
+        <v>8.7045780343686818E-2</v>
+      </c>
+      <c r="M33" s="55"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="22"/>
-      <c r="B34" s="53" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="15">
         <f>C33</f>
-        <v>0.49999999999999994</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="D34" s="16">
         <f>D33+C34</f>
-        <v>0.91666666666666674</v>
+        <v>1.6331360946745561</v>
       </c>
       <c r="E34" s="16">
         <f t="shared" ref="E34" si="22">E33+D34</f>
-        <v>1.2638888888888888</v>
+        <v>2.1793354574419661</v>
       </c>
       <c r="F34" s="16">
         <f t="shared" ref="F34" si="23">F33+E34</f>
-        <v>1.5532407407407409</v>
+        <v>2.599488813416897</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" ref="G34" si="24">G33+F34</f>
-        <v>1.7943672839506175</v>
+        <v>2.9226837026283823</v>
       </c>
       <c r="H34" s="16">
         <f t="shared" ref="H34" si="25">H33+G34</f>
-        <v>1.9953060699588483</v>
+        <v>3.1712951558679867</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" ref="I34" si="26">I33+H34</f>
-        <v>2.16275505829904</v>
+        <v>3.3625347352830666</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" ref="J34" si="27">J33+I34</f>
-        <v>2.3022958819158665</v>
+        <v>3.5096421040638974</v>
       </c>
       <c r="K34" s="16">
         <f t="shared" ref="K34" si="28">K33+J34</f>
-        <v>2.418579901596555</v>
+        <v>3.6228016185106902</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" ref="L34" si="29">L33+K34</f>
-        <v>2.5154832513304628</v>
-      </c>
-      <c r="M34" s="56"/>
+        <v>3.709847398854377</v>
+      </c>
+      <c r="M34" s="55"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="22"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="22"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="21"/>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="22"/>
-      <c r="B36" s="53" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="66">
         <f t="shared" ref="C36:L36" si="30">C17 * $C$7</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="D36" s="67">
+        <v>4.6153846153846156E-2</v>
+      </c>
+      <c r="D36" s="66">
         <f t="shared" si="30"/>
-        <v>2.7777777777777787E-2</v>
-      </c>
-      <c r="E36" s="67">
+        <v>3.5502958579881651E-2</v>
+      </c>
+      <c r="E36" s="66">
         <f t="shared" si="30"/>
-        <v>2.314814814814814E-2</v>
-      </c>
-      <c r="F36" s="67">
+        <v>2.73099681383705E-2</v>
+      </c>
+      <c r="F36" s="66">
         <f t="shared" si="30"/>
-        <v>1.9290123456790133E-2</v>
-      </c>
-      <c r="G36" s="67">
+        <v>2.1007667798746545E-2</v>
+      </c>
+      <c r="G36" s="66">
         <f t="shared" si="30"/>
-        <v>1.6075102880658432E-2</v>
-      </c>
-      <c r="H36" s="67">
+        <v>1.6159744460574266E-2</v>
+      </c>
+      <c r="H36" s="66">
         <f t="shared" si="30"/>
-        <v>1.3395919067215378E-2</v>
-      </c>
-      <c r="I36" s="67">
+        <v>1.2430572661980221E-2</v>
+      </c>
+      <c r="I36" s="66">
         <f t="shared" si="30"/>
-        <v>1.116326588934613E-2</v>
-      </c>
-      <c r="J36" s="67">
+        <v>9.5619789707539933E-3</v>
+      </c>
+      <c r="J36" s="66">
         <f t="shared" si="30"/>
-        <v>9.3027215744551084E-3</v>
-      </c>
-      <c r="K36" s="67">
+        <v>7.3553684390415437E-3</v>
+      </c>
+      <c r="K36" s="66">
         <f t="shared" si="30"/>
-        <v>7.7522679787125799E-3</v>
-      </c>
-      <c r="L36" s="67">
+        <v>5.6579757223396369E-3</v>
+      </c>
+      <c r="L36" s="66">
         <f t="shared" si="30"/>
-        <v>6.4602233155938386E-3</v>
-      </c>
-      <c r="M36" s="22"/>
+        <v>4.3522890171843413E-3</v>
+      </c>
+      <c r="M36" s="21"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="22"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="55">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="54">
         <f>SUM(C36:G36)/5</f>
-        <v>2.3924897119341561E-2</v>
-      </c>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="55">
+        <v>2.9226837026283824E-2</v>
+      </c>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="54">
         <f>SUM(C36:L36)/10</f>
-        <v>1.6769888342203085E-2</v>
-      </c>
-      <c r="M37" s="22"/>
+        <v>1.8549236994271891E-2</v>
+      </c>
+      <c r="M37" s="21"/>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="22"/>
-      <c r="B38" s="53" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="13">
         <f t="shared" ref="C38:L38" si="31">10*C36</f>
-        <v>0.33333333333333331</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" si="31"/>
-        <v>0.27777777777777785</v>
+        <v>0.35502958579881649</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="31"/>
-        <v>0.2314814814814814</v>
+        <v>0.273099681383705</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="31"/>
-        <v>0.19290123456790131</v>
+        <v>0.21007667798746546</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="31"/>
-        <v>0.16075102880658432</v>
+        <v>0.16159744460574266</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="31"/>
-        <v>0.13395919067215378</v>
+        <v>0.12430572661980221</v>
       </c>
       <c r="I38" s="14">
         <f t="shared" si="31"/>
-        <v>0.1116326588934613</v>
+        <v>9.5619789707539926E-2</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="31"/>
-        <v>9.3027215744551084E-2</v>
+        <v>7.355368439041543E-2</v>
       </c>
       <c r="K38" s="14">
         <f t="shared" si="31"/>
-        <v>7.7522679787125792E-2</v>
+        <v>5.6579757223396365E-2</v>
       </c>
       <c r="L38" s="14">
         <f t="shared" si="31"/>
-        <v>6.4602233155938382E-2</v>
-      </c>
-      <c r="M38" s="60"/>
+        <v>4.3522890171843409E-2</v>
+      </c>
+      <c r="M38" s="59"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="22"/>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="17">
         <f>C38</f>
-        <v>0.33333333333333331</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="D39" s="4">
         <f>D38+C39</f>
-        <v>0.61111111111111116</v>
+        <v>0.81656804733727806</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" ref="E39:L39" si="32">E38+D39</f>
-        <v>0.84259259259259256</v>
+        <v>1.0896677287209831</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" si="32"/>
-        <v>1.0354938271604939</v>
+        <v>1.2997444067084485</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="32"/>
-        <v>1.1962448559670782</v>
+        <v>1.4613418513141911</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="32"/>
-        <v>1.330204046639232</v>
+        <v>1.5856475779339934</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="32"/>
-        <v>1.4418367055326933</v>
+        <v>1.6812673676415333</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="32"/>
-        <v>1.5348639212772444</v>
+        <v>1.7548210520319487</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" si="32"/>
-        <v>1.6123866010643702</v>
+        <v>1.8114008092553451</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="32"/>
-        <v>1.6769888342203085</v>
+        <v>1.8549236994271885</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="22"/>
-      <c r="B40" s="53" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="26">
         <f>$C38*1000</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="D40" s="28">
+        <v>461.53846153846155</v>
+      </c>
+      <c r="D40" s="27">
         <f t="shared" ref="D40:L40" si="33">D38*1000</f>
-        <v>277.77777777777783</v>
-      </c>
-      <c r="E40" s="28">
+        <v>355.02958579881647</v>
+      </c>
+      <c r="E40" s="27">
         <f t="shared" si="33"/>
-        <v>231.48148148148141</v>
-      </c>
-      <c r="F40" s="28">
+        <v>273.09968138370499</v>
+      </c>
+      <c r="F40" s="27">
         <f t="shared" si="33"/>
-        <v>192.90123456790133</v>
-      </c>
-      <c r="G40" s="28">
+        <v>210.07667798746547</v>
+      </c>
+      <c r="G40" s="27">
         <f t="shared" si="33"/>
-        <v>160.75102880658432</v>
-      </c>
-      <c r="H40" s="28">
+        <v>161.59744460574265</v>
+      </c>
+      <c r="H40" s="27">
         <f t="shared" si="33"/>
-        <v>133.9591906721538</v>
-      </c>
-      <c r="I40" s="28">
+        <v>124.30572661980221</v>
+      </c>
+      <c r="I40" s="27">
         <f t="shared" si="33"/>
-        <v>111.6326588934613</v>
-      </c>
-      <c r="J40" s="28">
+        <v>95.619789707539923</v>
+      </c>
+      <c r="J40" s="27">
         <f t="shared" si="33"/>
-        <v>93.027215744551086</v>
-      </c>
-      <c r="K40" s="28">
+        <v>73.553684390415427</v>
+      </c>
+      <c r="K40" s="27">
         <f t="shared" si="33"/>
-        <v>77.522679787125796</v>
-      </c>
-      <c r="L40" s="28">
+        <v>56.579757223396363</v>
+      </c>
+      <c r="L40" s="27">
         <f t="shared" si="33"/>
-        <v>64.602233155938379</v>
-      </c>
-      <c r="M40" s="60"/>
+        <v>43.522890171843407</v>
+      </c>
+      <c r="M40" s="59"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="22"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="26">
         <f>C40</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="D41" s="28">
+        <v>461.53846153846155</v>
+      </c>
+      <c r="D41" s="27">
         <f>D40+C41</f>
-        <v>611.11111111111109</v>
-      </c>
-      <c r="E41" s="28">
+        <v>816.56804733727802</v>
+      </c>
+      <c r="E41" s="27">
         <f t="shared" ref="E41:L41" si="34">E40+D41</f>
-        <v>842.5925925925925</v>
-      </c>
-      <c r="F41" s="28">
+        <v>1089.667728720983</v>
+      </c>
+      <c r="F41" s="27">
         <f t="shared" si="34"/>
-        <v>1035.4938271604938</v>
-      </c>
-      <c r="G41" s="28">
+        <v>1299.7444067084484</v>
+      </c>
+      <c r="G41" s="27">
         <f t="shared" si="34"/>
-        <v>1196.2448559670781</v>
-      </c>
-      <c r="H41" s="28">
+        <v>1461.341851314191</v>
+      </c>
+      <c r="H41" s="27">
         <f t="shared" si="34"/>
-        <v>1330.2040466392318</v>
-      </c>
-      <c r="I41" s="28">
+        <v>1585.6475779339933</v>
+      </c>
+      <c r="I41" s="27">
         <f t="shared" si="34"/>
-        <v>1441.836705532693</v>
-      </c>
-      <c r="J41" s="28">
+        <v>1681.2673676415332</v>
+      </c>
+      <c r="J41" s="27">
         <f t="shared" si="34"/>
-        <v>1534.8639212772441</v>
-      </c>
-      <c r="K41" s="28">
+        <v>1754.8210520319485</v>
+      </c>
+      <c r="K41" s="27">
         <f t="shared" si="34"/>
-        <v>1612.3866010643699</v>
-      </c>
-      <c r="L41" s="28">
+        <v>1811.4008092553449</v>
+      </c>
+      <c r="L41" s="27">
         <f t="shared" si="34"/>
-        <v>1676.9888342203083</v>
-      </c>
-      <c r="M41" s="60"/>
+        <v>1854.9236994271882</v>
+      </c>
+      <c r="M41" s="59"/>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="22"/>
-      <c r="B42" s="53" t="s">
+      <c r="A42" s="21"/>
+      <c r="B42" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="26">
         <f>C38*20000</f>
-        <v>6666.6666666666661</v>
-      </c>
-      <c r="D42" s="28">
+        <v>9230.7692307692305</v>
+      </c>
+      <c r="D42" s="27">
         <f t="shared" ref="D42:L42" si="35">D38*20000</f>
-        <v>5555.5555555555566</v>
-      </c>
-      <c r="E42" s="28">
+        <v>7100.5917159763303</v>
+      </c>
+      <c r="E42" s="27">
         <f t="shared" si="35"/>
-        <v>4629.6296296296277</v>
-      </c>
-      <c r="F42" s="28">
+        <v>5461.9936276741</v>
+      </c>
+      <c r="F42" s="27">
         <f t="shared" si="35"/>
-        <v>3858.0246913580263</v>
-      </c>
-      <c r="G42" s="28">
+        <v>4201.5335597493095</v>
+      </c>
+      <c r="G42" s="27">
         <f t="shared" si="35"/>
-        <v>3215.0205761316865</v>
-      </c>
-      <c r="H42" s="28">
+        <v>3231.9488921148532</v>
+      </c>
+      <c r="H42" s="27">
         <f t="shared" si="35"/>
-        <v>2679.1838134430755</v>
-      </c>
-      <c r="I42" s="28">
+        <v>2486.1145323960445</v>
+      </c>
+      <c r="I42" s="27">
         <f t="shared" si="35"/>
-        <v>2232.6531778692261</v>
-      </c>
-      <c r="J42" s="28">
+        <v>1912.3957941507986</v>
+      </c>
+      <c r="J42" s="27">
         <f t="shared" si="35"/>
-        <v>1860.5443148910217</v>
-      </c>
-      <c r="K42" s="28">
+        <v>1471.0736878083087</v>
+      </c>
+      <c r="K42" s="27">
         <f t="shared" si="35"/>
-        <v>1550.4535957425157</v>
-      </c>
-      <c r="L42" s="28">
+        <v>1131.5951444679274</v>
+      </c>
+      <c r="L42" s="27">
         <f t="shared" si="35"/>
-        <v>1292.0446631187676</v>
-      </c>
-      <c r="M42" s="60"/>
+        <v>870.45780343686818</v>
+      </c>
+      <c r="M42" s="59"/>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="22"/>
-      <c r="B43" s="53" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="28">
         <f>C42</f>
-        <v>6666.6666666666661</v>
-      </c>
-      <c r="D43" s="30">
+        <v>9230.7692307692305</v>
+      </c>
+      <c r="D43" s="29">
         <f>D42+C43</f>
-        <v>12222.222222222223</v>
-      </c>
-      <c r="E43" s="30">
+        <v>16331.360946745561</v>
+      </c>
+      <c r="E43" s="29">
         <f t="shared" ref="E43:L43" si="36">E42+D43</f>
-        <v>16851.85185185185</v>
-      </c>
-      <c r="F43" s="30">
+        <v>21793.35457441966</v>
+      </c>
+      <c r="F43" s="29">
         <f t="shared" si="36"/>
-        <v>20709.876543209877</v>
-      </c>
-      <c r="G43" s="30">
+        <v>25994.88813416897</v>
+      </c>
+      <c r="G43" s="29">
         <f t="shared" si="36"/>
-        <v>23924.897119341564</v>
-      </c>
-      <c r="H43" s="30">
+        <v>29226.837026283822</v>
+      </c>
+      <c r="H43" s="29">
         <f t="shared" si="36"/>
-        <v>26604.08093278464</v>
-      </c>
-      <c r="I43" s="30">
+        <v>31712.951558679866</v>
+      </c>
+      <c r="I43" s="29">
         <f t="shared" si="36"/>
-        <v>28836.734110653866</v>
-      </c>
-      <c r="J43" s="30">
+        <v>33625.347352830664</v>
+      </c>
+      <c r="J43" s="29">
         <f t="shared" si="36"/>
-        <v>30697.278425544886</v>
-      </c>
-      <c r="K43" s="30">
+        <v>35096.421040638976</v>
+      </c>
+      <c r="K43" s="29">
         <f t="shared" si="36"/>
-        <v>32247.7320212874</v>
-      </c>
-      <c r="L43" s="30">
+        <v>36228.016185106906</v>
+      </c>
+      <c r="L43" s="29">
         <f t="shared" si="36"/>
-        <v>33539.77668440617</v>
-      </c>
-      <c r="M43" s="60"/>
+        <v>37098.473988543774</v>
+      </c>
+      <c r="M43" s="59"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="22"/>
-      <c r="B44" s="53" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="65">
+      <c r="C44" s="64">
         <f>C38*50000</f>
-        <v>16666.666666666664</v>
-      </c>
-      <c r="D44" s="65">
+        <v>23076.923076923078</v>
+      </c>
+      <c r="D44" s="64">
         <f t="shared" ref="D44:L44" si="37">D38*50000</f>
-        <v>13888.888888888892</v>
-      </c>
-      <c r="E44" s="65">
+        <v>17751.479289940824</v>
+      </c>
+      <c r="E44" s="64">
         <f t="shared" si="37"/>
-        <v>11574.074074074069</v>
-      </c>
-      <c r="F44" s="65">
+        <v>13654.98406918525</v>
+      </c>
+      <c r="F44" s="64">
         <f t="shared" si="37"/>
-        <v>9645.0617283950651</v>
-      </c>
-      <c r="G44" s="65">
+        <v>10503.833899373272</v>
+      </c>
+      <c r="G44" s="64">
         <f t="shared" si="37"/>
-        <v>8037.5514403292154</v>
-      </c>
-      <c r="H44" s="65">
+        <v>8079.8722302871329</v>
+      </c>
+      <c r="H44" s="64">
         <f t="shared" si="37"/>
-        <v>6697.9595336076891</v>
-      </c>
-      <c r="I44" s="65">
+        <v>6215.2863309901104</v>
+      </c>
+      <c r="I44" s="64">
         <f t="shared" si="37"/>
-        <v>5581.6329446730651</v>
-      </c>
-      <c r="J44" s="65">
+        <v>4780.9894853769965</v>
+      </c>
+      <c r="J44" s="64">
         <f t="shared" si="37"/>
-        <v>4651.3607872275543</v>
-      </c>
-      <c r="K44" s="65">
+        <v>3677.6842195207714</v>
+      </c>
+      <c r="K44" s="64">
         <f t="shared" si="37"/>
-        <v>3876.1339893562895</v>
-      </c>
-      <c r="L44" s="65">
+        <v>2828.9878611698182</v>
+      </c>
+      <c r="L44" s="64">
         <f t="shared" si="37"/>
-        <v>3230.1116577969192</v>
-      </c>
-      <c r="M44" s="23"/>
+        <v>2176.1445085921705</v>
+      </c>
+      <c r="M44" s="22"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="22"/>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="65">
+      <c r="C45" s="64">
         <f>C44</f>
-        <v>16666.666666666664</v>
-      </c>
-      <c r="D45" s="65">
+        <v>23076.923076923078</v>
+      </c>
+      <c r="D45" s="64">
         <f>D44+C45</f>
-        <v>30555.555555555555</v>
-      </c>
-      <c r="E45" s="65">
+        <v>40828.402366863898</v>
+      </c>
+      <c r="E45" s="64">
         <f t="shared" ref="E45:L45" si="38">E44+D45</f>
-        <v>42129.62962962962</v>
-      </c>
-      <c r="F45" s="65">
+        <v>54483.38643604915</v>
+      </c>
+      <c r="F45" s="64">
         <f t="shared" si="38"/>
-        <v>51774.691358024684</v>
-      </c>
-      <c r="G45" s="65">
+        <v>64987.220335422418</v>
+      </c>
+      <c r="G45" s="64">
         <f t="shared" si="38"/>
-        <v>59812.242798353902</v>
-      </c>
-      <c r="H45" s="65">
+        <v>73067.09256570955</v>
+      </c>
+      <c r="H45" s="64">
         <f t="shared" si="38"/>
-        <v>66510.202331961598</v>
-      </c>
-      <c r="I45" s="65">
+        <v>79282.378896699665</v>
+      </c>
+      <c r="I45" s="64">
         <f t="shared" si="38"/>
-        <v>72091.835276634665</v>
-      </c>
-      <c r="J45" s="65">
+        <v>84063.36838207666</v>
+      </c>
+      <c r="J45" s="64">
         <f t="shared" si="38"/>
-        <v>76743.196063862226</v>
-      </c>
-      <c r="K45" s="65">
+        <v>87741.052601597432</v>
+      </c>
+      <c r="K45" s="64">
         <f t="shared" si="38"/>
-        <v>80619.330053218509</v>
-      </c>
-      <c r="L45" s="65">
+        <v>90570.040462767254</v>
+      </c>
+      <c r="L45" s="64">
         <f t="shared" si="38"/>
-        <v>83849.441711015432</v>
-      </c>
-      <c r="M45" s="22"/>
+        <v>92746.184971359427</v>
+      </c>
+      <c r="M45" s="21"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="24"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2703,34 +2766,34 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="53" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="44"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="43"/>
     </row>
     <row r="54" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="44"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="43"/>
     </row>
     <row r="56" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2753,4 +2816,1585 @@
     <ignoredError sqref="C8" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D28A8B3-4D3D-4488-B4BF-24906CFC65EC}">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="1.73046875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="36" style="7" customWidth="1"/>
+    <col min="3" max="12" width="12" style="7" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.46484375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="1.53125" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="9.06640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="61"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="82"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="24">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="21"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="21"/>
+      <c r="B6" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="21"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="21"/>
+      <c r="B8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="21"/>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="21"/>
+      <c r="B10" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <f>($C$3 * $C$9) + $C$3</f>
+        <v>120000</v>
+      </c>
+      <c r="D10" s="2">
+        <f>(C10 * $C$9) + C10</f>
+        <v>144000</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ref="E10:L10" si="0">(D10 * $C$9) + D10</f>
+        <v>172800</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>207360</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>248832</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>298598.40000000002</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>358318.08000000002</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>429981.696</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>515978.03519999998</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>619173.64223999996</v>
+      </c>
+      <c r="M10" s="55"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="21"/>
+      <c r="B11" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="33">
+        <f>C10*21000000</f>
+        <v>2520000000000</v>
+      </c>
+      <c r="D11" s="34">
+        <f t="shared" ref="D11:L11" si="1">D10*21000000</f>
+        <v>3024000000000</v>
+      </c>
+      <c r="E11" s="34">
+        <f t="shared" si="1"/>
+        <v>3628800000000</v>
+      </c>
+      <c r="F11" s="34">
+        <f t="shared" si="1"/>
+        <v>4354560000000</v>
+      </c>
+      <c r="G11" s="34">
+        <f t="shared" si="1"/>
+        <v>5225472000000</v>
+      </c>
+      <c r="H11" s="34">
+        <f t="shared" si="1"/>
+        <v>6270566400000.001</v>
+      </c>
+      <c r="I11" s="34">
+        <f t="shared" si="1"/>
+        <v>7524679680000</v>
+      </c>
+      <c r="J11" s="34">
+        <f t="shared" si="1"/>
+        <v>9029615616000</v>
+      </c>
+      <c r="K11" s="34">
+        <f t="shared" si="1"/>
+        <v>10835538739200</v>
+      </c>
+      <c r="L11" s="34">
+        <f t="shared" si="1"/>
+        <v>13002646487040</v>
+      </c>
+      <c r="M11" s="55"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="21"/>
+      <c r="B12" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="66">
+        <f>( ( C10 - $C$3 ) ) / C10</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D12" s="66">
+        <f>( ( D10 - $C$3 ) ) / D10</f>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="E12" s="66">
+        <f t="shared" ref="E12:L12" si="2">( ( E10 - $C$3 ) ) / E10</f>
+        <v>0.42129629629629628</v>
+      </c>
+      <c r="F12" s="66">
+        <f t="shared" si="2"/>
+        <v>0.51774691358024694</v>
+      </c>
+      <c r="G12" s="66">
+        <f t="shared" si="2"/>
+        <v>0.5981224279835391</v>
+      </c>
+      <c r="H12" s="66">
+        <f t="shared" si="2"/>
+        <v>0.66510202331961599</v>
+      </c>
+      <c r="I12" s="76">
+        <f t="shared" si="2"/>
+        <v>0.72091835276634664</v>
+      </c>
+      <c r="J12" s="76">
+        <f t="shared" si="2"/>
+        <v>0.76743196063862218</v>
+      </c>
+      <c r="K12" s="66">
+        <f t="shared" si="2"/>
+        <v>0.80619330053218508</v>
+      </c>
+      <c r="L12" s="66">
+        <f t="shared" si="2"/>
+        <v>0.83849441711015427</v>
+      </c>
+      <c r="M12" s="61"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="21"/>
+      <c r="B13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="66">
+        <f>1-C12</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D13" s="66">
+        <f t="shared" ref="D13:L13" si="3">1-D12</f>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="E13" s="66">
+        <f t="shared" si="3"/>
+        <v>0.57870370370370372</v>
+      </c>
+      <c r="F13" s="66">
+        <f t="shared" si="3"/>
+        <v>0.48225308641975306</v>
+      </c>
+      <c r="G13" s="66">
+        <f t="shared" si="3"/>
+        <v>0.4018775720164609</v>
+      </c>
+      <c r="H13" s="66">
+        <f t="shared" si="3"/>
+        <v>0.33489797668038401</v>
+      </c>
+      <c r="I13" s="76">
+        <f t="shared" si="3"/>
+        <v>0.27908164723365336</v>
+      </c>
+      <c r="J13" s="76">
+        <f t="shared" si="3"/>
+        <v>0.23256803936137782</v>
+      </c>
+      <c r="K13" s="66">
+        <f t="shared" si="3"/>
+        <v>0.19380669946781492</v>
+      </c>
+      <c r="L13" s="66">
+        <f t="shared" si="3"/>
+        <v>0.16150558288984573</v>
+      </c>
+      <c r="M13" s="61"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="60">
+        <f>C12</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D14" s="63">
+        <f>D12-C12</f>
+        <v>0.13888888888888892</v>
+      </c>
+      <c r="E14" s="63">
+        <f>E12-D12</f>
+        <v>0.1157407407407407</v>
+      </c>
+      <c r="F14" s="63">
+        <f t="shared" ref="F14:L14" si="4">F12-E12</f>
+        <v>9.6450617283950657E-2</v>
+      </c>
+      <c r="G14" s="63">
+        <f t="shared" si="4"/>
+        <v>8.0375514403292159E-2</v>
+      </c>
+      <c r="H14" s="63">
+        <f t="shared" si="4"/>
+        <v>6.6979595336076891E-2</v>
+      </c>
+      <c r="I14" s="63">
+        <f t="shared" si="4"/>
+        <v>5.581632944673065E-2</v>
+      </c>
+      <c r="J14" s="63">
+        <f t="shared" si="4"/>
+        <v>4.6513607872275542E-2</v>
+      </c>
+      <c r="K14" s="63">
+        <f t="shared" si="4"/>
+        <v>3.8761339893562896E-2</v>
+      </c>
+      <c r="L14" s="63">
+        <f t="shared" si="4"/>
+        <v>3.2301116577969191E-2</v>
+      </c>
+      <c r="M14" s="55"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="21"/>
+      <c r="B15" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57">
+        <f>SUM(C14:G14)/5</f>
+        <v>0.11962448559670782</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="57">
+        <f>SUM(C14:L14)/10</f>
+        <v>8.3849441711015424E-2</v>
+      </c>
+      <c r="M15" s="55"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="21"/>
+      <c r="B16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="21"/>
+      <c r="B17" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <f>($C$3 * $C$16) + $C$3</f>
+        <v>125000</v>
+      </c>
+      <c r="D17" s="2">
+        <f>(C17 * $C$16) + C17</f>
+        <v>156250</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:L17" si="5">(D17 * $C$16) + D17</f>
+        <v>195312.5</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="5"/>
+        <v>244140.625</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="5"/>
+        <v>305175.78125</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="5"/>
+        <v>381469.7265625</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="5"/>
+        <v>476837.158203125</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="5"/>
+        <v>596046.44775390625</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="5"/>
+        <v>745058.05969238281</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="5"/>
+        <v>931322.57461547852</v>
+      </c>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="21"/>
+      <c r="B18" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="33">
+        <f>C17*21000000</f>
+        <v>2625000000000</v>
+      </c>
+      <c r="D18" s="34">
+        <f t="shared" ref="D18:L18" si="6">D17*21000000</f>
+        <v>3281250000000</v>
+      </c>
+      <c r="E18" s="34">
+        <f t="shared" si="6"/>
+        <v>4101562500000</v>
+      </c>
+      <c r="F18" s="34">
+        <f t="shared" si="6"/>
+        <v>5126953125000</v>
+      </c>
+      <c r="G18" s="34">
+        <f t="shared" si="6"/>
+        <v>6408691406250</v>
+      </c>
+      <c r="H18" s="34">
+        <f t="shared" si="6"/>
+        <v>8010864257812.5</v>
+      </c>
+      <c r="I18" s="34">
+        <f t="shared" si="6"/>
+        <v>10013580322265.625</v>
+      </c>
+      <c r="J18" s="34">
+        <f t="shared" si="6"/>
+        <v>12516975402832.031</v>
+      </c>
+      <c r="K18" s="34">
+        <f t="shared" si="6"/>
+        <v>15646219253540.039</v>
+      </c>
+      <c r="L18" s="34">
+        <f t="shared" si="6"/>
+        <v>19557774066925.047</v>
+      </c>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="21"/>
+      <c r="B19" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="66">
+        <f>( ( C17 - $C$3 ) ) / C17</f>
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="66">
+        <f>( ( D17 - $C$3 ) ) / D17</f>
+        <v>0.36</v>
+      </c>
+      <c r="E19" s="66">
+        <f t="shared" ref="E19:L19" si="7">( ( E17 - $C$3 ) ) / E17</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="F19" s="66">
+        <f t="shared" si="7"/>
+        <v>0.59040000000000004</v>
+      </c>
+      <c r="G19" s="66">
+        <f t="shared" si="7"/>
+        <v>0.67232000000000003</v>
+      </c>
+      <c r="H19" s="76">
+        <f t="shared" si="7"/>
+        <v>0.73785599999999996</v>
+      </c>
+      <c r="I19" s="76">
+        <f t="shared" si="7"/>
+        <v>0.79028480000000001</v>
+      </c>
+      <c r="J19" s="66">
+        <f t="shared" si="7"/>
+        <v>0.83222784000000005</v>
+      </c>
+      <c r="K19" s="66">
+        <f t="shared" si="7"/>
+        <v>0.86578227200000002</v>
+      </c>
+      <c r="L19" s="66">
+        <f t="shared" si="7"/>
+        <v>0.89262581760000004</v>
+      </c>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="21"/>
+      <c r="B20" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="66">
+        <f>1-C19</f>
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="66">
+        <f t="shared" ref="D20:L20" si="8">1-D19</f>
+        <v>0.64</v>
+      </c>
+      <c r="E20" s="66">
+        <f t="shared" si="8"/>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F20" s="66">
+        <f t="shared" si="8"/>
+        <v>0.40959999999999996</v>
+      </c>
+      <c r="G20" s="66">
+        <f t="shared" si="8"/>
+        <v>0.32767999999999997</v>
+      </c>
+      <c r="H20" s="76">
+        <f t="shared" si="8"/>
+        <v>0.26214400000000004</v>
+      </c>
+      <c r="I20" s="76">
+        <f t="shared" si="8"/>
+        <v>0.20971519999999999</v>
+      </c>
+      <c r="J20" s="66">
+        <f t="shared" si="8"/>
+        <v>0.16777215999999995</v>
+      </c>
+      <c r="K20" s="66">
+        <f t="shared" si="8"/>
+        <v>0.13421772799999998</v>
+      </c>
+      <c r="L20" s="66">
+        <f t="shared" si="8"/>
+        <v>0.10737418239999996</v>
+      </c>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="21"/>
+      <c r="B21" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="60">
+        <f>C19</f>
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="63">
+        <f>D19-C19</f>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="E21" s="63">
+        <f>E19-D19</f>
+        <v>0.128</v>
+      </c>
+      <c r="F21" s="63">
+        <f t="shared" ref="F21" si="9">F19-E19</f>
+        <v>0.10240000000000005</v>
+      </c>
+      <c r="G21" s="63">
+        <f t="shared" ref="G21" si="10">G19-F19</f>
+        <v>8.1919999999999993E-2</v>
+      </c>
+      <c r="H21" s="63">
+        <f t="shared" ref="H21" si="11">H19-G19</f>
+        <v>6.5535999999999928E-2</v>
+      </c>
+      <c r="I21" s="63">
+        <f t="shared" ref="I21" si="12">I19-H19</f>
+        <v>5.2428800000000053E-2</v>
+      </c>
+      <c r="J21" s="63">
+        <f t="shared" ref="J21" si="13">J19-I19</f>
+        <v>4.1943040000000043E-2</v>
+      </c>
+      <c r="K21" s="63">
+        <f t="shared" ref="K21" si="14">K19-J19</f>
+        <v>3.3554431999999967E-2</v>
+      </c>
+      <c r="L21" s="63">
+        <f t="shared" ref="L21" si="15">L19-K19</f>
+        <v>2.6843545600000018E-2</v>
+      </c>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="21"/>
+      <c r="B22" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57">
+        <f>SUM(C21:G21)/5</f>
+        <v>0.134464</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="57">
+        <f>SUM(C21:L21)/10</f>
+        <v>8.9262581760000001E-2</v>
+      </c>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="21"/>
+      <c r="B23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="21"/>
+      <c r="B24" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12">
+        <f>($C$3 * $C$23) + $C$3</f>
+        <v>130000</v>
+      </c>
+      <c r="D24" s="2">
+        <f>(C24 * $C$23) + C24</f>
+        <v>169000</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" ref="E24:L24" si="16">(D24 * $C$23) + D24</f>
+        <v>219700</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="16"/>
+        <v>285610</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="16"/>
+        <v>371293</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="16"/>
+        <v>482680.9</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="16"/>
+        <v>627485.17000000004</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="16"/>
+        <v>815730.72100000002</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="16"/>
+        <v>1060449.9373000001</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="16"/>
+        <v>1378584.9184900001</v>
+      </c>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="21"/>
+      <c r="B25" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="33">
+        <f>C24*21000000</f>
+        <v>2730000000000</v>
+      </c>
+      <c r="D25" s="34">
+        <f t="shared" ref="D25:L25" si="17">D24*21000000</f>
+        <v>3549000000000</v>
+      </c>
+      <c r="E25" s="34">
+        <f t="shared" si="17"/>
+        <v>4613700000000</v>
+      </c>
+      <c r="F25" s="34">
+        <f t="shared" si="17"/>
+        <v>5997810000000</v>
+      </c>
+      <c r="G25" s="34">
+        <f t="shared" si="17"/>
+        <v>7797153000000</v>
+      </c>
+      <c r="H25" s="34">
+        <f t="shared" si="17"/>
+        <v>10136298900000</v>
+      </c>
+      <c r="I25" s="34">
+        <f t="shared" si="17"/>
+        <v>13177188570000</v>
+      </c>
+      <c r="J25" s="34">
+        <f t="shared" si="17"/>
+        <v>17130345141000</v>
+      </c>
+      <c r="K25" s="34">
+        <f t="shared" si="17"/>
+        <v>22269448683300.004</v>
+      </c>
+      <c r="L25" s="34">
+        <f t="shared" si="17"/>
+        <v>28950283288290</v>
+      </c>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="21"/>
+      <c r="B26" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="66">
+        <f>( ( C24 - $C$3 ) ) / C24</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D26" s="66">
+        <f>( ( D24 - $C$3 ) ) / D24</f>
+        <v>0.40828402366863903</v>
+      </c>
+      <c r="E26" s="66">
+        <f t="shared" ref="E26:L26" si="18">( ( E24 - $C$3 ) ) / E24</f>
+        <v>0.54483386436049153</v>
+      </c>
+      <c r="F26" s="66">
+        <f t="shared" si="18"/>
+        <v>0.64987220335422424</v>
+      </c>
+      <c r="G26" s="76">
+        <f t="shared" si="18"/>
+        <v>0.73067092565709557</v>
+      </c>
+      <c r="H26" s="76">
+        <f t="shared" si="18"/>
+        <v>0.79282378896699668</v>
+      </c>
+      <c r="I26" s="66">
+        <f t="shared" si="18"/>
+        <v>0.84063368382076664</v>
+      </c>
+      <c r="J26" s="66">
+        <f t="shared" si="18"/>
+        <v>0.87741052601597436</v>
+      </c>
+      <c r="K26" s="66">
+        <f t="shared" si="18"/>
+        <v>0.90570040462767254</v>
+      </c>
+      <c r="L26" s="66">
+        <f t="shared" si="18"/>
+        <v>0.92746184971359424</v>
+      </c>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="21"/>
+      <c r="B27" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="66">
+        <f>1-C26</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="D27" s="66">
+        <f t="shared" ref="D27:L27" si="19">1-D26</f>
+        <v>0.59171597633136097</v>
+      </c>
+      <c r="E27" s="66">
+        <f t="shared" si="19"/>
+        <v>0.45516613563950847</v>
+      </c>
+      <c r="F27" s="66">
+        <f t="shared" si="19"/>
+        <v>0.35012779664577576</v>
+      </c>
+      <c r="G27" s="76">
+        <f t="shared" si="19"/>
+        <v>0.26932907434290443</v>
+      </c>
+      <c r="H27" s="76">
+        <f t="shared" si="19"/>
+        <v>0.20717621103300332</v>
+      </c>
+      <c r="I27" s="66">
+        <f t="shared" si="19"/>
+        <v>0.15936631617923336</v>
+      </c>
+      <c r="J27" s="66">
+        <f t="shared" si="19"/>
+        <v>0.12258947398402564</v>
+      </c>
+      <c r="K27" s="66">
+        <f t="shared" si="19"/>
+        <v>9.429959537232746E-2</v>
+      </c>
+      <c r="L27" s="66">
+        <f t="shared" si="19"/>
+        <v>7.2538150286405756E-2</v>
+      </c>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="21"/>
+      <c r="B28" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="60">
+        <f>C26</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D28" s="63">
+        <f>D26-C26</f>
+        <v>0.17751479289940825</v>
+      </c>
+      <c r="E28" s="63">
+        <f>E26-D26</f>
+        <v>0.1365498406918525</v>
+      </c>
+      <c r="F28" s="63">
+        <f t="shared" ref="F28" si="20">F26-E26</f>
+        <v>0.10503833899373272</v>
+      </c>
+      <c r="G28" s="63">
+        <f t="shared" ref="G28" si="21">G26-F26</f>
+        <v>8.0798722302871329E-2</v>
+      </c>
+      <c r="H28" s="63">
+        <f t="shared" ref="H28" si="22">H26-G26</f>
+        <v>6.2152863309901107E-2</v>
+      </c>
+      <c r="I28" s="63">
+        <f t="shared" ref="I28" si="23">I26-H26</f>
+        <v>4.7809894853769963E-2</v>
+      </c>
+      <c r="J28" s="63">
+        <f t="shared" ref="J28" si="24">J26-I26</f>
+        <v>3.6776842195207715E-2</v>
+      </c>
+      <c r="K28" s="63">
+        <f t="shared" ref="K28" si="25">K26-J26</f>
+        <v>2.8289878611698183E-2</v>
+      </c>
+      <c r="L28" s="63">
+        <f t="shared" ref="L28" si="26">L26-K26</f>
+        <v>2.1761445085921705E-2</v>
+      </c>
+      <c r="M28" s="21"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="21"/>
+      <c r="B29" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57">
+        <f>SUM(C28:G28)/5</f>
+        <v>0.14613418513141913</v>
+      </c>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="57">
+        <f>SUM(C28:L28)/10</f>
+        <v>9.2746184971359419E-2</v>
+      </c>
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="21"/>
+      <c r="B30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="38">
+        <v>0.35</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="21"/>
+      <c r="B31" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12">
+        <f>($C$3 * $C$30) + $C$3</f>
+        <v>135000</v>
+      </c>
+      <c r="D31" s="2">
+        <f>(C31 * $C$30) + C31</f>
+        <v>182250</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" ref="E31:L31" si="27">(D31 * $C$30) + D31</f>
+        <v>246037.5</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="27"/>
+        <v>332150.625</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="27"/>
+        <v>448403.34375</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="27"/>
+        <v>605344.51406249998</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="27"/>
+        <v>817215.09398437501</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="27"/>
+        <v>1103240.3768789063</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="27"/>
+        <v>1489374.5087865235</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="27"/>
+        <v>2010655.5868618067</v>
+      </c>
+      <c r="M31" s="21"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="21"/>
+      <c r="B32" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="33">
+        <f>C31*21000000</f>
+        <v>2835000000000</v>
+      </c>
+      <c r="D32" s="34">
+        <f t="shared" ref="D32:L32" si="28">D31*21000000</f>
+        <v>3827250000000</v>
+      </c>
+      <c r="E32" s="34">
+        <f t="shared" si="28"/>
+        <v>5166787500000</v>
+      </c>
+      <c r="F32" s="34">
+        <f t="shared" si="28"/>
+        <v>6975163125000</v>
+      </c>
+      <c r="G32" s="34">
+        <f t="shared" si="28"/>
+        <v>9416470218750</v>
+      </c>
+      <c r="H32" s="34">
+        <f t="shared" si="28"/>
+        <v>12712234795312.5</v>
+      </c>
+      <c r="I32" s="34">
+        <f t="shared" si="28"/>
+        <v>17161516973671.875</v>
+      </c>
+      <c r="J32" s="34">
+        <f t="shared" si="28"/>
+        <v>23168047914457.031</v>
+      </c>
+      <c r="K32" s="34">
+        <f t="shared" si="28"/>
+        <v>31276864684516.992</v>
+      </c>
+      <c r="L32" s="34">
+        <f t="shared" si="28"/>
+        <v>42223767324097.938</v>
+      </c>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="21"/>
+      <c r="B33" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="66">
+        <f>( ( C31 - $C$3 ) ) / C31</f>
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="D33" s="66">
+        <f>( ( D31 - $C$3 ) ) / D31</f>
+        <v>0.45130315500685869</v>
+      </c>
+      <c r="E33" s="66">
+        <f t="shared" ref="E33:L33" si="29">( ( E31 - $C$3 ) ) / E31</f>
+        <v>0.59355789259767311</v>
+      </c>
+      <c r="F33" s="76">
+        <f t="shared" si="29"/>
+        <v>0.69893177229457271</v>
+      </c>
+      <c r="G33" s="76">
+        <f t="shared" si="29"/>
+        <v>0.77698649799597974</v>
+      </c>
+      <c r="H33" s="66">
+        <f t="shared" si="29"/>
+        <v>0.83480481333035539</v>
+      </c>
+      <c r="I33" s="66">
+        <f t="shared" si="29"/>
+        <v>0.87763319505952253</v>
+      </c>
+      <c r="J33" s="66">
+        <f t="shared" si="29"/>
+        <v>0.90935792226631296</v>
+      </c>
+      <c r="K33" s="66">
+        <f t="shared" si="29"/>
+        <v>0.93285772019726887</v>
+      </c>
+      <c r="L33" s="66">
+        <f t="shared" si="29"/>
+        <v>0.95026497792390285</v>
+      </c>
+      <c r="M33" s="21"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="21"/>
+      <c r="B34" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="66">
+        <f>1-C33</f>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="D34" s="66">
+        <f t="shared" ref="D34:L34" si="30">1-D33</f>
+        <v>0.54869684499314131</v>
+      </c>
+      <c r="E34" s="66">
+        <f t="shared" si="30"/>
+        <v>0.40644210740232689</v>
+      </c>
+      <c r="F34" s="76">
+        <f t="shared" si="30"/>
+        <v>0.30106822770542729</v>
+      </c>
+      <c r="G34" s="76">
+        <f t="shared" si="30"/>
+        <v>0.22301350200402026</v>
+      </c>
+      <c r="H34" s="66">
+        <f t="shared" si="30"/>
+        <v>0.16519518666964461</v>
+      </c>
+      <c r="I34" s="66">
+        <f t="shared" si="30"/>
+        <v>0.12236680494047747</v>
+      </c>
+      <c r="J34" s="66">
+        <f t="shared" si="30"/>
+        <v>9.0642077733687043E-2</v>
+      </c>
+      <c r="K34" s="66">
+        <f t="shared" si="30"/>
+        <v>6.7142279802731131E-2</v>
+      </c>
+      <c r="L34" s="66">
+        <f t="shared" si="30"/>
+        <v>4.9735022076097146E-2</v>
+      </c>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="21"/>
+      <c r="B35" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="60">
+        <f>C33</f>
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="D35" s="63">
+        <f>D33-C33</f>
+        <v>0.19204389574759945</v>
+      </c>
+      <c r="E35" s="63">
+        <f>E33-D33</f>
+        <v>0.14225473759081442</v>
+      </c>
+      <c r="F35" s="63">
+        <f t="shared" ref="F35" si="31">F33-E33</f>
+        <v>0.1053738796968996</v>
+      </c>
+      <c r="G35" s="63">
+        <f t="shared" ref="G35" si="32">G33-F33</f>
+        <v>7.8054725701407035E-2</v>
+      </c>
+      <c r="H35" s="63">
+        <f t="shared" ref="H35" si="33">H33-G33</f>
+        <v>5.7818315334375647E-2</v>
+      </c>
+      <c r="I35" s="63">
+        <f t="shared" ref="I35" si="34">I33-H33</f>
+        <v>4.2828381729167142E-2</v>
+      </c>
+      <c r="J35" s="63">
+        <f t="shared" ref="J35" si="35">J33-I33</f>
+        <v>3.1724727206790426E-2</v>
+      </c>
+      <c r="K35" s="63">
+        <f t="shared" ref="K35" si="36">K33-J33</f>
+        <v>2.3499797930955912E-2</v>
+      </c>
+      <c r="L35" s="63">
+        <f t="shared" ref="L35" si="37">L33-K33</f>
+        <v>1.7407257726633985E-2</v>
+      </c>
+      <c r="M35" s="21"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="21"/>
+      <c r="B36" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57">
+        <f>SUM(C35:G35)/5</f>
+        <v>0.15539729959919596</v>
+      </c>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="57">
+        <f>SUM(C35:L35)/10</f>
+        <v>9.502649779239028E-2</v>
+      </c>
+      <c r="M36" s="21"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="21"/>
+      <c r="B37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="21"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="21"/>
+      <c r="B38" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="12">
+        <f>($C$3 * $C$37) + $C$3</f>
+        <v>140000</v>
+      </c>
+      <c r="D38" s="2">
+        <f>(C38 * $C$37) + C38</f>
+        <v>196000</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" ref="E38:L38" si="38">(D38 * $C$37) + D38</f>
+        <v>274400</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="38"/>
+        <v>384160</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="38"/>
+        <v>537824</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="38"/>
+        <v>752953.6</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="38"/>
+        <v>1054135.04</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="38"/>
+        <v>1475789.0560000001</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="38"/>
+        <v>2066104.6784000001</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="38"/>
+        <v>2892546.5497600003</v>
+      </c>
+      <c r="M38" s="21"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="21"/>
+      <c r="B39" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="33">
+        <f>C38*21000000</f>
+        <v>2940000000000</v>
+      </c>
+      <c r="D39" s="34">
+        <f t="shared" ref="D39:L39" si="39">D38*21000000</f>
+        <v>4116000000000</v>
+      </c>
+      <c r="E39" s="34">
+        <f t="shared" si="39"/>
+        <v>5762400000000</v>
+      </c>
+      <c r="F39" s="34">
+        <f t="shared" si="39"/>
+        <v>8067360000000</v>
+      </c>
+      <c r="G39" s="34">
+        <f t="shared" si="39"/>
+        <v>11294304000000</v>
+      </c>
+      <c r="H39" s="34">
+        <f t="shared" si="39"/>
+        <v>15812025600000</v>
+      </c>
+      <c r="I39" s="34">
+        <f t="shared" si="39"/>
+        <v>22136835840000</v>
+      </c>
+      <c r="J39" s="34">
+        <f t="shared" si="39"/>
+        <v>30991570176000.004</v>
+      </c>
+      <c r="K39" s="34">
+        <f t="shared" si="39"/>
+        <v>43388198246400</v>
+      </c>
+      <c r="L39" s="34">
+        <f t="shared" si="39"/>
+        <v>60743477544960.008</v>
+      </c>
+      <c r="M39" s="21"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="21"/>
+      <c r="B40" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="66">
+        <f>( ( C38 - $C$3 ) ) / C38</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D40" s="66">
+        <f>( ( D38 - $C$3 ) ) / D38</f>
+        <v>0.48979591836734693</v>
+      </c>
+      <c r="E40" s="66">
+        <f t="shared" ref="E40:L40" si="40">( ( E38 - $C$3 ) ) / E38</f>
+        <v>0.63556851311953355</v>
+      </c>
+      <c r="F40" s="76">
+        <f t="shared" si="40"/>
+        <v>0.73969179508538108</v>
+      </c>
+      <c r="G40" s="76">
+        <f t="shared" si="40"/>
+        <v>0.81406556791812934</v>
+      </c>
+      <c r="H40" s="66">
+        <f t="shared" si="40"/>
+        <v>0.86718969137009239</v>
+      </c>
+      <c r="I40" s="66">
+        <f t="shared" si="40"/>
+        <v>0.90513549383578029</v>
+      </c>
+      <c r="J40" s="66">
+        <f t="shared" si="40"/>
+        <v>0.93223963845412883</v>
+      </c>
+      <c r="K40" s="66">
+        <f t="shared" si="40"/>
+        <v>0.95159974175294915</v>
+      </c>
+      <c r="L40" s="66">
+        <f t="shared" si="40"/>
+        <v>0.96542838696639222</v>
+      </c>
+      <c r="M40" s="21"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="21"/>
+      <c r="B41" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="66">
+        <f>1-C40</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D41" s="66">
+        <f t="shared" ref="D41:L41" si="41">1-D40</f>
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="E41" s="66">
+        <f t="shared" si="41"/>
+        <v>0.36443148688046645</v>
+      </c>
+      <c r="F41" s="76">
+        <f t="shared" si="41"/>
+        <v>0.26030820491461892</v>
+      </c>
+      <c r="G41" s="76">
+        <f t="shared" si="41"/>
+        <v>0.18593443208187066</v>
+      </c>
+      <c r="H41" s="66">
+        <f t="shared" si="41"/>
+        <v>0.13281030862990761</v>
+      </c>
+      <c r="I41" s="66">
+        <f t="shared" si="41"/>
+        <v>9.4864506164219708E-2</v>
+      </c>
+      <c r="J41" s="66">
+        <f t="shared" si="41"/>
+        <v>6.7760361545871173E-2</v>
+      </c>
+      <c r="K41" s="66">
+        <f t="shared" si="41"/>
+        <v>4.8400258247050854E-2</v>
+      </c>
+      <c r="L41" s="66">
+        <f t="shared" si="41"/>
+        <v>3.4571613033607784E-2</v>
+      </c>
+      <c r="M41" s="21"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="21"/>
+      <c r="B42" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="60">
+        <f>C40</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D42" s="63">
+        <f>D40-C40</f>
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="E42" s="63">
+        <f>E40-D40</f>
+        <v>0.14577259475218662</v>
+      </c>
+      <c r="F42" s="63">
+        <f t="shared" ref="F42" si="42">F40-E40</f>
+        <v>0.10412328196584753</v>
+      </c>
+      <c r="G42" s="63">
+        <f t="shared" ref="G42" si="43">G40-F40</f>
+        <v>7.4373772832748264E-2</v>
+      </c>
+      <c r="H42" s="63">
+        <f t="shared" ref="H42" si="44">H40-G40</f>
+        <v>5.3124123451963046E-2</v>
+      </c>
+      <c r="I42" s="63">
+        <f t="shared" ref="I42" si="45">I40-H40</f>
+        <v>3.7945802465687906E-2</v>
+      </c>
+      <c r="J42" s="63">
+        <f t="shared" ref="J42" si="46">J40-I40</f>
+        <v>2.7104144618348536E-2</v>
+      </c>
+      <c r="K42" s="63">
+        <f t="shared" ref="K42" si="47">K40-J40</f>
+        <v>1.9360103298820319E-2</v>
+      </c>
+      <c r="L42" s="63">
+        <f t="shared" ref="L42" si="48">L40-K40</f>
+        <v>1.3828645213443069E-2</v>
+      </c>
+      <c r="M42" s="21"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="21"/>
+      <c r="B43" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="83"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49">
+        <f>SUM(C42:G42)/5</f>
+        <v>0.16281311358362588</v>
+      </c>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="49">
+        <f>SUM(C42:L42)/10</f>
+        <v>9.6542838696639224E-2</v>
+      </c>
+      <c r="M43" s="21"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="55"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>